--- a/GGFPortal/ExcelUpLoad/Salse/複本 12.13w(1).xlsx
+++ b/GGFPortal/ExcelUpLoad/Salse/複本 12.13w(1).xlsx
@@ -34,7 +34,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'12.13 C'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'12.13 E'!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -644,24 +644,24 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="19">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="183" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="184" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="185" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="186" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="187" formatCode="#,##0_ "/>
-    <numFmt numFmtId="188" formatCode="\+0_ ;[Red]\-0"/>
-    <numFmt numFmtId="189" formatCode="&quot;Ban&quot;\ 0\ &quot;班&quot;"/>
-    <numFmt numFmtId="190" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="194" formatCode="0.0%"/>
-    <numFmt numFmtId="195" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="196" formatCode="mm&quot;月&quot;dd&quot;日&quot;;@"/>
-    <numFmt numFmtId="197" formatCode="0_ "/>
-    <numFmt numFmtId="198" formatCode="\+0;[Red]\-0"/>
-    <numFmt numFmtId="200" formatCode="#,##0\ &quot;pcs&quot;"/>
-    <numFmt numFmtId="201" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="202" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="203" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="206" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="179" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="180" formatCode="#,##0_ "/>
+    <numFmt numFmtId="181" formatCode="\+0_ ;[Red]\-0"/>
+    <numFmt numFmtId="182" formatCode="&quot;Ban&quot;\ 0\ &quot;班&quot;"/>
+    <numFmt numFmtId="183" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="184" formatCode="0.0%"/>
+    <numFmt numFmtId="185" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="186" formatCode="mm&quot;月&quot;dd&quot;日&quot;;@"/>
+    <numFmt numFmtId="187" formatCode="0_ "/>
+    <numFmt numFmtId="188" formatCode="\+0;[Red]\-0"/>
+    <numFmt numFmtId="189" formatCode="#,##0\ &quot;pcs&quot;"/>
+    <numFmt numFmtId="190" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="191" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="192" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="193" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="51">
     <font>
@@ -1945,16 +1945,16 @@
     <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="189" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="189" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="189" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="189" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2069,7 +2069,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="183" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="225">
@@ -2118,13 +2118,13 @@
     <xf numFmtId="37" fontId="2" fillId="26" borderId="13" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="26" borderId="13" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="26" borderId="13" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="99" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="26" borderId="0" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="26" borderId="0" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="5" fillId="26" borderId="14" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2149,19 +2149,19 @@
     <xf numFmtId="0" fontId="5" fillId="26" borderId="16" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="26" borderId="17" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="26" borderId="17" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="37" fontId="5" fillId="26" borderId="18" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="5" fillId="26" borderId="0" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="26" borderId="0" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="15" xfId="99" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="5" fillId="26" borderId="19" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="26" borderId="19" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="37" fontId="5" fillId="26" borderId="15" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2188,7 +2188,7 @@
     <xf numFmtId="0" fontId="8" fillId="26" borderId="18" xfId="99" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="188" fontId="8" fillId="26" borderId="15" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="8" fillId="26" borderId="15" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2205,14 +2205,14 @@
     <xf numFmtId="0" fontId="43" fillId="26" borderId="23" xfId="99" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="201" fontId="43" fillId="26" borderId="23" xfId="103" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="43" fillId="26" borderId="23" xfId="103" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="26" borderId="24" xfId="99" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="14" fillId="26" borderId="43" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="14" fillId="26" borderId="43" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="26" borderId="0" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2222,7 +2222,7 @@
     <xf numFmtId="9" fontId="14" fillId="26" borderId="44" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="189" fontId="5" fillId="26" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="5" fillId="26" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="26" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2231,13 +2231,13 @@
     <xf numFmtId="38" fontId="5" fillId="26" borderId="43" xfId="100" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="190" fontId="5" fillId="26" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="5" fillId="26" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="184" fontId="5" fillId="26" borderId="43" xfId="100" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="26" borderId="43" xfId="100" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="196" fontId="14" fillId="26" borderId="43" xfId="102" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="14" fillId="26" borderId="43" xfId="102" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="39" fontId="14" fillId="26" borderId="43" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2252,7 +2252,7 @@
     <xf numFmtId="9" fontId="5" fillId="26" borderId="43" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="197" fontId="14" fillId="26" borderId="43" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="14" fillId="26" borderId="43" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="38" fontId="14" fillId="26" borderId="43" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2261,7 +2261,7 @@
     <xf numFmtId="3" fontId="14" fillId="26" borderId="43" xfId="100" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="198" fontId="14" fillId="26" borderId="43" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="14" fillId="26" borderId="43" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="26" borderId="43" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2270,16 +2270,16 @@
     <xf numFmtId="10" fontId="15" fillId="26" borderId="43" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="195" fontId="7" fillId="26" borderId="43" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="7" fillId="26" borderId="43" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="38" fontId="11" fillId="26" borderId="21" xfId="100" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="26" borderId="26" xfId="90" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="26" borderId="26" xfId="90" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="202" fontId="5" fillId="26" borderId="26" xfId="90" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="5" fillId="26" borderId="26" xfId="90" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="26" borderId="26" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2291,13 +2291,13 @@
     <xf numFmtId="9" fontId="5" fillId="26" borderId="26" xfId="104" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="190" fontId="48" fillId="26" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="48" fillId="26" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="26" borderId="43" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="189" fontId="5" fillId="26" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="5" fillId="26" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="26" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2306,13 +2306,13 @@
     <xf numFmtId="38" fontId="5" fillId="26" borderId="45" xfId="100" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="190" fontId="48" fillId="26" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="48" fillId="26" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="184" fontId="5" fillId="26" borderId="45" xfId="100" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="26" borderId="45" xfId="100" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="196" fontId="14" fillId="26" borderId="45" xfId="102" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="14" fillId="26" borderId="45" xfId="102" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="39" fontId="14" fillId="26" borderId="45" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2327,7 +2327,7 @@
     <xf numFmtId="9" fontId="5" fillId="26" borderId="45" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="197" fontId="14" fillId="26" borderId="45" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="14" fillId="26" borderId="45" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="38" fontId="14" fillId="26" borderId="45" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2336,7 +2336,7 @@
     <xf numFmtId="3" fontId="14" fillId="26" borderId="45" xfId="100" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="198" fontId="14" fillId="26" borderId="45" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="14" fillId="26" borderId="45" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="26" borderId="45" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2351,7 +2351,7 @@
     <xf numFmtId="0" fontId="14" fillId="26" borderId="15" xfId="101" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="197" fontId="14" fillId="26" borderId="43" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="14" fillId="26" borderId="43" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="39" fontId="49" fillId="26" borderId="43" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2366,19 +2366,19 @@
     <xf numFmtId="9" fontId="14" fillId="26" borderId="46" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="189" fontId="5" fillId="26" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="5" fillId="26" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="190" fontId="5" fillId="26" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="5" fillId="26" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="26" borderId="48" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="197" fontId="14" fillId="26" borderId="45" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="14" fillId="26" borderId="45" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="7" fillId="26" borderId="45" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="7" fillId="26" borderId="45" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="26" borderId="49" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2387,16 +2387,16 @@
     <xf numFmtId="9" fontId="5" fillId="26" borderId="50" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="197" fontId="14" fillId="26" borderId="49" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="14" fillId="26" borderId="49" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="189" fontId="5" fillId="26" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="5" fillId="26" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="26" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="196" fontId="14" fillId="26" borderId="49" xfId="102" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="14" fillId="26" borderId="49" xfId="102" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="39" fontId="14" fillId="26" borderId="49" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2418,7 +2418,7 @@
     <xf numFmtId="0" fontId="14" fillId="26" borderId="45" xfId="99" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="185" fontId="14" fillId="26" borderId="45" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="26" borderId="45" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="37" fontId="5" fillId="26" borderId="45" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2436,19 +2436,19 @@
     <xf numFmtId="0" fontId="13" fillId="26" borderId="29" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="203" fontId="19" fillId="25" borderId="30" xfId="103" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="19" fillId="25" borderId="30" xfId="103" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="201" fontId="19" fillId="25" borderId="31" xfId="103" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="19" fillId="25" borderId="31" xfId="103" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="203" fontId="19" fillId="25" borderId="31" xfId="103" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="19" fillId="25" borderId="31" xfId="103" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="194" fontId="14" fillId="25" borderId="32" xfId="104" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="14" fillId="25" borderId="32" xfId="104" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2457,19 +2457,19 @@
     <xf numFmtId="0" fontId="19" fillId="25" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="201" fontId="19" fillId="25" borderId="34" xfId="103" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="19" fillId="25" borderId="34" xfId="103" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="38" fontId="19" fillId="25" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="203" fontId="14" fillId="25" borderId="34" xfId="103" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="14" fillId="25" borderId="34" xfId="103" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="194" fontId="14" fillId="25" borderId="35" xfId="104" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="14" fillId="25" borderId="35" xfId="104" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="189" fontId="5" fillId="27" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="5" fillId="27" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="27" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2478,13 +2478,13 @@
     <xf numFmtId="38" fontId="5" fillId="27" borderId="43" xfId="100" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="190" fontId="5" fillId="27" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="5" fillId="27" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="184" fontId="5" fillId="27" borderId="43" xfId="100" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="27" borderId="43" xfId="100" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="196" fontId="14" fillId="27" borderId="43" xfId="102" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="14" fillId="27" borderId="43" xfId="102" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="39" fontId="14" fillId="27" borderId="43" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2496,7 +2496,7 @@
     <xf numFmtId="3" fontId="14" fillId="27" borderId="43" xfId="100" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="198" fontId="14" fillId="27" borderId="43" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="14" fillId="27" borderId="43" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="27" borderId="43" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2505,16 +2505,16 @@
     <xf numFmtId="10" fontId="15" fillId="27" borderId="43" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="195" fontId="7" fillId="27" borderId="43" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="7" fillId="27" borderId="43" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="38" fontId="11" fillId="27" borderId="21" xfId="100" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="27" borderId="26" xfId="90" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="27" borderId="26" xfId="90" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="202" fontId="14" fillId="27" borderId="26" xfId="90" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="14" fillId="27" borderId="26" xfId="90" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="27" borderId="26" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2533,10 +2533,10 @@
     <xf numFmtId="0" fontId="14" fillId="27" borderId="43" xfId="101" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="197" fontId="14" fillId="27" borderId="43" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="14" fillId="27" borderId="43" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="202" fontId="5" fillId="27" borderId="26" xfId="90" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="5" fillId="27" borderId="26" xfId="90" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="27" borderId="26" xfId="104" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2551,7 +2551,7 @@
     <xf numFmtId="0" fontId="14" fillId="27" borderId="15" xfId="101" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="190" fontId="48" fillId="27" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="48" fillId="27" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="26" borderId="52" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2562,7 +2562,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="38" fontId="4" fillId="0" borderId="0" xfId="71" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="202" fontId="14" fillId="0" borderId="26" xfId="90" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="14" fillId="0" borderId="26" xfId="90" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="26" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2577,10 +2577,10 @@
     <xf numFmtId="9" fontId="14" fillId="0" borderId="26" xfId="104" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="28" borderId="26" xfId="90" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="28" borderId="26" xfId="90" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="206" fontId="50" fillId="29" borderId="23" xfId="103" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="193" fontId="50" fillId="29" borderId="23" xfId="103" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="9" fontId="49" fillId="27" borderId="45" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2593,7 +2593,7 @@
     <xf numFmtId="9" fontId="14" fillId="27" borderId="43" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="197" fontId="14" fillId="27" borderId="43" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="14" fillId="27" borderId="43" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="27" borderId="15" xfId="101" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2607,16 +2607,19 @@
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="104" applyFont="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="71" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="14" fillId="27" borderId="43" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="36" xfId="90" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="37" xfId="90" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="38" xfId="90" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="27" borderId="49" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="43" xfId="101" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="49" fillId="27" borderId="49" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="49" fillId="27" borderId="56" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="27" borderId="45" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="39" fontId="14" fillId="27" borderId="15" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2625,14 +2628,47 @@
     <xf numFmtId="39" fontId="14" fillId="27" borderId="27" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="15" xfId="101" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="27" xfId="101" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="9" fontId="5" fillId="27" borderId="50" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="27" borderId="53" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="187" fontId="14" fillId="27" borderId="49" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="14" fillId="27" borderId="45" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="49" fillId="27" borderId="49" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="49" fillId="27" borderId="45" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="27" borderId="43" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="9" fontId="5" fillId="27" borderId="43" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="27" borderId="43" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="27" borderId="54" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="27" borderId="47" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="27" borderId="43" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="39" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2653,55 +2689,19 @@
     <xf numFmtId="0" fontId="2" fillId="26" borderId="42" xfId="99" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="26" borderId="0" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="26" borderId="0" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="26" borderId="14" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="27" borderId="43" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="197" fontId="14" fillId="27" borderId="49" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="197" fontId="14" fillId="27" borderId="45" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="27" borderId="54" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="26" borderId="14" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="27" borderId="55" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="27" borderId="47" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="43" xfId="101" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="27" borderId="49" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="27" borderId="45" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="36" xfId="90" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="37" xfId="90" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="38" xfId="90" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="15" xfId="101" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="27" xfId="101" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="49" fillId="27" borderId="45" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="27" borderId="43" xfId="99" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="49" fillId="27" borderId="56" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -6470,10 +6470,10 @@
   <dimension ref="A1:AB75"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="Q5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="U7" sqref="U7"/>
+      <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6504,29 +6504,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="26.25">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="214" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="203"/>
-      <c r="K1" s="203"/>
-      <c r="L1" s="203"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="203"/>
-      <c r="O1" s="203"/>
-      <c r="P1" s="203"/>
-      <c r="Q1" s="203"/>
-      <c r="R1" s="203"/>
-      <c r="S1" s="203"/>
-      <c r="T1" s="203"/>
-      <c r="U1" s="204"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="215"/>
+      <c r="L1" s="215"/>
+      <c r="M1" s="215"/>
+      <c r="N1" s="215"/>
+      <c r="O1" s="215"/>
+      <c r="P1" s="215"/>
+      <c r="Q1" s="215"/>
+      <c r="R1" s="215"/>
+      <c r="S1" s="215"/>
+      <c r="T1" s="215"/>
+      <c r="U1" s="216"/>
       <c r="V1" s="14"/>
       <c r="W1" s="15"/>
       <c r="X1" s="15"/>
@@ -6536,29 +6536,29 @@
       <c r="AB1" s="15"/>
     </row>
     <row r="2" spans="1:28" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
-      <c r="K2" s="206"/>
-      <c r="L2" s="206"/>
-      <c r="M2" s="206"/>
-      <c r="N2" s="206"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="206"/>
-      <c r="Q2" s="206"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="206"/>
-      <c r="T2" s="206"/>
-      <c r="U2" s="207"/>
+      <c r="B2" s="218"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="218"/>
+      <c r="L2" s="218"/>
+      <c r="M2" s="218"/>
+      <c r="N2" s="218"/>
+      <c r="O2" s="218"/>
+      <c r="P2" s="218"/>
+      <c r="Q2" s="218"/>
+      <c r="R2" s="218"/>
+      <c r="S2" s="218"/>
+      <c r="T2" s="218"/>
+      <c r="U2" s="219"/>
       <c r="V2" s="14"/>
       <c r="W2" s="15"/>
       <c r="X2" s="15"/>
@@ -6587,19 +6587,19 @@
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
       <c r="S3" s="22"/>
-      <c r="T3" s="208">
+      <c r="T3" s="220">
         <v>42717</v>
       </c>
-      <c r="U3" s="209"/>
+      <c r="U3" s="221"/>
       <c r="V3" s="14"/>
-      <c r="W3" s="218" t="s">
+      <c r="W3" s="192" t="s">
         <v>145</v>
       </c>
-      <c r="X3" s="219"/>
-      <c r="Y3" s="219"/>
-      <c r="Z3" s="219"/>
-      <c r="AA3" s="219"/>
-      <c r="AB3" s="220"/>
+      <c r="X3" s="193"/>
+      <c r="Y3" s="193"/>
+      <c r="Z3" s="193"/>
+      <c r="AA3" s="193"/>
+      <c r="AB3" s="194"/>
     </row>
     <row r="4" spans="1:28" s="4" customFormat="1" ht="96" customHeight="1">
       <c r="A4" s="29" t="s">
@@ -6685,27 +6685,27 @@
       <c r="A5" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="201" t="s">
+      <c r="B5" s="213" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="201"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="201"/>
-      <c r="H5" s="201"/>
-      <c r="I5" s="201"/>
-      <c r="J5" s="201"/>
-      <c r="K5" s="201"/>
-      <c r="L5" s="201"/>
-      <c r="M5" s="201"/>
-      <c r="N5" s="201"/>
-      <c r="O5" s="201"/>
-      <c r="P5" s="201"/>
-      <c r="Q5" s="201"/>
-      <c r="R5" s="201"/>
-      <c r="S5" s="201"/>
-      <c r="T5" s="201"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="213"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="213"/>
+      <c r="H5" s="213"/>
+      <c r="I5" s="213"/>
+      <c r="J5" s="213"/>
+      <c r="K5" s="213"/>
+      <c r="L5" s="213"/>
+      <c r="M5" s="213"/>
+      <c r="N5" s="213"/>
+      <c r="O5" s="213"/>
+      <c r="P5" s="213"/>
+      <c r="Q5" s="213"/>
+      <c r="R5" s="213"/>
+      <c r="S5" s="213"/>
+      <c r="T5" s="213"/>
       <c r="U5" s="55"/>
       <c r="V5" s="56"/>
       <c r="W5" s="57"/>
@@ -6781,10 +6781,7 @@
       <c r="T6" s="74">
         <v>0.16202090592334495</v>
       </c>
-      <c r="U6" s="75" t="str">
-        <f>A6&amp;B6</f>
-        <v>T01MACY'S</v>
-      </c>
+      <c r="U6" s="75"/>
       <c r="V6" s="76"/>
       <c r="W6" s="77">
         <f>1150000/26/$I$58/10.5*K6*I6</f>
@@ -6812,7 +6809,7 @@
       </c>
     </row>
     <row r="7" spans="1:28" s="162" customFormat="1" ht="27" customHeight="1">
-      <c r="A7" s="213" t="s">
+      <c r="A7" s="210" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="142" t="s">
@@ -6836,19 +6833,19 @@
       <c r="H7" s="148">
         <v>18.309999999999999</v>
       </c>
-      <c r="I7" s="192">
+      <c r="I7" s="212">
         <v>25.5</v>
       </c>
       <c r="J7" s="181">
         <v>238</v>
       </c>
-      <c r="K7" s="193">
+      <c r="K7" s="223">
         <v>5.5</v>
       </c>
-      <c r="L7" s="200">
+      <c r="L7" s="208">
         <v>1</v>
       </c>
-      <c r="M7" s="211">
+      <c r="M7" s="203">
         <f>H7/8*I7*K7</f>
         <v>320.9971875</v>
       </c>
@@ -6870,7 +6867,7 @@
         <f>N7/M7</f>
         <v>6.2305841854143972E-2</v>
       </c>
-      <c r="S7" s="194">
+      <c r="S7" s="205">
         <f>(N7+N8)/M7</f>
         <v>0.80374535991845719</v>
       </c>
@@ -6906,7 +6903,7 @@
       </c>
     </row>
     <row r="8" spans="1:28" s="162" customFormat="1" ht="27" customHeight="1">
-      <c r="A8" s="214"/>
+      <c r="A8" s="222"/>
       <c r="B8" s="142" t="s">
         <v>27</v>
       </c>
@@ -6928,11 +6925,11 @@
       <c r="H8" s="148">
         <v>18.309999999999999</v>
       </c>
-      <c r="I8" s="192"/>
+      <c r="I8" s="212"/>
       <c r="J8" s="181"/>
-      <c r="K8" s="193"/>
-      <c r="L8" s="200"/>
-      <c r="M8" s="212"/>
+      <c r="K8" s="223"/>
+      <c r="L8" s="208"/>
+      <c r="M8" s="204"/>
       <c r="N8" s="149">
         <v>238</v>
       </c>
@@ -6951,7 +6948,7 @@
         <f>N8/M7</f>
         <v>0.7414395180643133</v>
       </c>
-      <c r="S8" s="195"/>
+      <c r="S8" s="224"/>
       <c r="T8" s="153">
         <v>0.10866574965612105</v>
       </c>
@@ -6967,7 +6964,7 @@
       </c>
     </row>
     <row r="9" spans="1:28" s="162" customFormat="1" ht="27" customHeight="1">
-      <c r="A9" s="215"/>
+      <c r="A9" s="211"/>
       <c r="B9" s="142" t="s">
         <v>23</v>
       </c>
@@ -6989,12 +6986,12 @@
       <c r="H9" s="148">
         <v>27.09</v>
       </c>
-      <c r="I9" s="192"/>
+      <c r="I9" s="212"/>
       <c r="J9" s="181"/>
       <c r="K9" s="163">
         <v>4</v>
       </c>
-      <c r="L9" s="200"/>
+      <c r="L9" s="208"/>
       <c r="M9" s="164">
         <f>H9/8*I7*K9</f>
         <v>345.39749999999998</v>
@@ -7145,7 +7142,7 @@
       </c>
     </row>
     <row r="11" spans="1:28" s="162" customFormat="1" ht="27" customHeight="1">
-      <c r="A11" s="213" t="s">
+      <c r="A11" s="210" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="142" t="s">
@@ -7169,7 +7166,7 @@
       <c r="H11" s="148">
         <v>26.37</v>
       </c>
-      <c r="I11" s="192">
+      <c r="I11" s="212">
         <v>23</v>
       </c>
       <c r="J11" s="181">
@@ -7178,7 +7175,7 @@
       <c r="K11" s="163">
         <v>3</v>
       </c>
-      <c r="L11" s="200">
+      <c r="L11" s="208">
         <v>1</v>
       </c>
       <c r="M11" s="164">
@@ -7203,7 +7200,7 @@
         <f t="shared" si="3"/>
         <v>2.7831363044302648</v>
       </c>
-      <c r="S11" s="210">
+      <c r="S11" s="209">
         <f>R11*K11/9.5+R12*K12/9.5</f>
         <v>1.0873548547331029</v>
       </c>
@@ -7237,7 +7234,7 @@
       </c>
     </row>
     <row r="12" spans="1:28" s="162" customFormat="1" ht="27" customHeight="1">
-      <c r="A12" s="215"/>
+      <c r="A12" s="211"/>
       <c r="B12" s="142" t="s">
         <v>43</v>
       </c>
@@ -7259,12 +7256,12 @@
       <c r="H12" s="148">
         <v>29.33</v>
       </c>
-      <c r="I12" s="192"/>
+      <c r="I12" s="212"/>
       <c r="J12" s="181"/>
       <c r="K12" s="163">
         <v>6.5</v>
       </c>
-      <c r="L12" s="200"/>
+      <c r="L12" s="208"/>
       <c r="M12" s="164">
         <f>H12/8*I11*K12</f>
         <v>548.10437499999989</v>
@@ -7287,7 +7284,7 @@
         <f t="shared" si="3"/>
         <v>0.30468649333441289</v>
       </c>
-      <c r="S12" s="210"/>
+      <c r="S12" s="209"/>
       <c r="T12" s="153">
         <v>7.8979343863912518E-2</v>
       </c>
@@ -8441,7 +8438,7 @@
       </c>
     </row>
     <row r="25" spans="1:28" s="162" customFormat="1" ht="27" customHeight="1">
-      <c r="A25" s="216" t="s">
+      <c r="A25" s="195" t="s">
         <v>67</v>
       </c>
       <c r="B25" s="142" t="s">
@@ -8465,7 +8462,7 @@
       <c r="H25" s="148">
         <v>25.55</v>
       </c>
-      <c r="I25" s="196">
+      <c r="I25" s="197">
         <v>28.526315789473685</v>
       </c>
       <c r="J25" s="181">
@@ -8474,7 +8471,7 @@
       <c r="K25" s="169">
         <v>1.5</v>
       </c>
-      <c r="L25" s="198">
+      <c r="L25" s="201">
         <v>1</v>
       </c>
       <c r="M25" s="164">
@@ -8495,7 +8492,7 @@
         <f t="shared" si="1"/>
         <v>-7697</v>
       </c>
-      <c r="S25" s="210" t="e">
+      <c r="S25" s="209" t="e">
         <f>#REF!*K25/9.5+#REF!*K26/9.5</f>
         <v>#REF!</v>
       </c>
@@ -8531,7 +8528,7 @@
       </c>
     </row>
     <row r="26" spans="1:28" s="162" customFormat="1" ht="27" customHeight="1">
-      <c r="A26" s="217"/>
+      <c r="A26" s="196"/>
       <c r="B26" s="142" t="s">
         <v>27</v>
       </c>
@@ -8553,12 +8550,12 @@
       <c r="H26" s="148">
         <v>25.46</v>
       </c>
-      <c r="I26" s="197"/>
+      <c r="I26" s="198"/>
       <c r="J26" s="181"/>
       <c r="K26" s="169">
         <v>8</v>
       </c>
-      <c r="L26" s="199"/>
+      <c r="L26" s="202"/>
       <c r="M26" s="164">
         <f>H26/8*I25*K26</f>
         <v>726.28000000000009</v>
@@ -8577,7 +8574,7 @@
         <f t="shared" si="1"/>
         <v>-2910</v>
       </c>
-      <c r="S26" s="210"/>
+      <c r="S26" s="209"/>
       <c r="T26" s="153">
         <v>0.20669999999999999</v>
       </c>
@@ -8891,7 +8888,7 @@
       </c>
     </row>
     <row r="30" spans="1:28" s="162" customFormat="1" ht="27" customHeight="1">
-      <c r="A30" s="216" t="s">
+      <c r="A30" s="195" t="s">
         <v>76</v>
       </c>
       <c r="B30" s="142" t="s">
@@ -8915,7 +8912,7 @@
       <c r="H30" s="148">
         <v>34.159999999999997</v>
       </c>
-      <c r="I30" s="196">
+      <c r="I30" s="197">
         <v>24.842105263157894</v>
       </c>
       <c r="J30" s="181">
@@ -8924,7 +8921,7 @@
       <c r="K30" s="169">
         <v>7</v>
       </c>
-      <c r="L30" s="198">
+      <c r="L30" s="201">
         <v>1</v>
       </c>
       <c r="M30" s="164">
@@ -8949,7 +8946,7 @@
         <f t="shared" si="10"/>
         <v>1.0773967825529769</v>
       </c>
-      <c r="S30" s="210">
+      <c r="S30" s="209">
         <f>R30*K30/9.5+R31*K31/9.5</f>
         <v>1.0143310244479051</v>
       </c>
@@ -8984,7 +8981,7 @@
       </c>
     </row>
     <row r="31" spans="1:28" s="162" customFormat="1" ht="27" customHeight="1">
-      <c r="A31" s="217"/>
+      <c r="A31" s="196"/>
       <c r="B31" s="142" t="s">
         <v>23</v>
       </c>
@@ -9006,12 +9003,12 @@
       <c r="H31" s="148">
         <v>32.29</v>
       </c>
-      <c r="I31" s="197"/>
+      <c r="I31" s="198"/>
       <c r="J31" s="181"/>
       <c r="K31" s="169">
         <v>2.5</v>
       </c>
-      <c r="L31" s="199"/>
+      <c r="L31" s="202"/>
       <c r="M31" s="164">
         <f>H31/8*I30*K31</f>
         <v>250.67236842105262</v>
@@ -9034,7 +9031,7 @@
         <f t="shared" si="10"/>
         <v>0.83774690175370459</v>
       </c>
-      <c r="S31" s="210"/>
+      <c r="S31" s="209"/>
       <c r="T31" s="153"/>
       <c r="U31" s="154"/>
       <c r="V31" s="155"/>
@@ -9156,7 +9153,7 @@
       </c>
     </row>
     <row r="33" spans="1:28" s="162" customFormat="1" ht="27" customHeight="1">
-      <c r="A33" s="224" t="s">
+      <c r="A33" s="207" t="s">
         <v>80</v>
       </c>
       <c r="B33" s="142" t="s">
@@ -9180,7 +9177,7 @@
       <c r="H33" s="148">
         <v>20.51</v>
       </c>
-      <c r="I33" s="196">
+      <c r="I33" s="197">
         <v>26.5</v>
       </c>
       <c r="J33" s="181">
@@ -9189,7 +9186,7 @@
       <c r="K33" s="169">
         <v>3.5</v>
       </c>
-      <c r="L33" s="200">
+      <c r="L33" s="208">
         <v>1</v>
       </c>
       <c r="M33" s="164">
@@ -9214,7 +9211,7 @@
         <f t="shared" si="10"/>
         <v>0.71492309976988411</v>
       </c>
-      <c r="S33" s="210">
+      <c r="S33" s="209">
         <f>R33*K33/9.5+R34*K34/9.5</f>
         <v>1.0059899547931561</v>
       </c>
@@ -9250,7 +9247,7 @@
       </c>
     </row>
     <row r="34" spans="1:28" s="162" customFormat="1" ht="27" customHeight="1">
-      <c r="A34" s="224"/>
+      <c r="A34" s="207"/>
       <c r="B34" s="142" t="s">
         <v>23</v>
       </c>
@@ -9272,12 +9269,12 @@
       <c r="H34" s="148">
         <v>22.68</v>
       </c>
-      <c r="I34" s="197"/>
+      <c r="I34" s="198"/>
       <c r="J34" s="181"/>
       <c r="K34" s="169">
         <v>6</v>
       </c>
-      <c r="L34" s="200"/>
+      <c r="L34" s="208"/>
       <c r="M34" s="164">
         <f>H34/8*I33*K34</f>
         <v>450.76499999999999</v>
@@ -9300,7 +9297,7 @@
         <f t="shared" si="10"/>
         <v>1.1757789535567313</v>
       </c>
-      <c r="S34" s="210"/>
+      <c r="S34" s="209"/>
       <c r="T34" s="153">
         <v>9.7493036211699163E-2</v>
       </c>
@@ -9807,7 +9804,7 @@
       </c>
     </row>
     <row r="40" spans="1:28" s="162" customFormat="1" ht="27" customHeight="1">
-      <c r="A40" s="216" t="s">
+      <c r="A40" s="195" t="s">
         <v>96</v>
       </c>
       <c r="B40" s="142" t="s">
@@ -9831,19 +9828,19 @@
       <c r="H40" s="148">
         <v>27.14</v>
       </c>
-      <c r="I40" s="196">
+      <c r="I40" s="197">
         <v>26</v>
       </c>
       <c r="J40" s="181">
         <v>250</v>
       </c>
-      <c r="K40" s="221">
+      <c r="K40" s="199">
         <v>9.5</v>
       </c>
-      <c r="L40" s="198">
+      <c r="L40" s="201">
         <v>1</v>
       </c>
-      <c r="M40" s="211">
+      <c r="M40" s="203">
         <f t="shared" si="11"/>
         <v>837.94749999999999</v>
       </c>
@@ -9865,7 +9862,7 @@
         <f t="shared" si="10"/>
         <v>0.27925377186518247</v>
       </c>
-      <c r="S40" s="194">
+      <c r="S40" s="205">
         <f>R40+R41</f>
         <v>0.70410139060024646</v>
       </c>
@@ -9899,7 +9896,7 @@
       </c>
     </row>
     <row r="41" spans="1:28" s="162" customFormat="1" ht="27" customHeight="1">
-      <c r="A41" s="217"/>
+      <c r="A41" s="196"/>
       <c r="B41" s="142" t="s">
         <v>24</v>
       </c>
@@ -9921,11 +9918,11 @@
       <c r="H41" s="148">
         <v>27.14</v>
       </c>
-      <c r="I41" s="197"/>
+      <c r="I41" s="198"/>
       <c r="J41" s="181"/>
-      <c r="K41" s="222"/>
-      <c r="L41" s="199"/>
-      <c r="M41" s="212"/>
+      <c r="K41" s="200"/>
+      <c r="L41" s="202"/>
+      <c r="M41" s="204"/>
       <c r="N41" s="149">
         <v>356</v>
       </c>
@@ -9944,7 +9941,7 @@
         <f>N41/M40</f>
         <v>0.42484761873506394</v>
       </c>
-      <c r="S41" s="223"/>
+      <c r="S41" s="206"/>
       <c r="T41" s="153">
         <v>5.7333333333333333E-2</v>
       </c>
@@ -11904,6 +11901,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="B5:T5"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:U2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="L30:L31"/>
     <mergeCell ref="W3:AB3"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="I40:I41"/>
@@ -11920,23 +11934,6 @@
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="S11:S12"/>
     <mergeCell ref="A25:A26"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="B5:T5"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A2:U2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="L11:L12"/>
   </mergeCells>
   <phoneticPr fontId="46" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -11986,29 +11983,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="26.25">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="214" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="203"/>
-      <c r="K1" s="203"/>
-      <c r="L1" s="203"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="203"/>
-      <c r="O1" s="203"/>
-      <c r="P1" s="203"/>
-      <c r="Q1" s="203"/>
-      <c r="R1" s="203"/>
-      <c r="S1" s="203"/>
-      <c r="T1" s="203"/>
-      <c r="U1" s="204"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="215"/>
+      <c r="L1" s="215"/>
+      <c r="M1" s="215"/>
+      <c r="N1" s="215"/>
+      <c r="O1" s="215"/>
+      <c r="P1" s="215"/>
+      <c r="Q1" s="215"/>
+      <c r="R1" s="215"/>
+      <c r="S1" s="215"/>
+      <c r="T1" s="215"/>
+      <c r="U1" s="216"/>
       <c r="V1" s="14"/>
       <c r="W1" s="15"/>
       <c r="X1" s="15"/>
@@ -12018,29 +12015,29 @@
       <c r="AB1" s="15"/>
     </row>
     <row r="2" spans="1:28" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
-      <c r="K2" s="206"/>
-      <c r="L2" s="206"/>
-      <c r="M2" s="206"/>
-      <c r="N2" s="206"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="206"/>
-      <c r="Q2" s="206"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="206"/>
-      <c r="T2" s="206"/>
-      <c r="U2" s="207"/>
+      <c r="B2" s="218"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="218"/>
+      <c r="L2" s="218"/>
+      <c r="M2" s="218"/>
+      <c r="N2" s="218"/>
+      <c r="O2" s="218"/>
+      <c r="P2" s="218"/>
+      <c r="Q2" s="218"/>
+      <c r="R2" s="218"/>
+      <c r="S2" s="218"/>
+      <c r="T2" s="218"/>
+      <c r="U2" s="219"/>
       <c r="V2" s="14"/>
       <c r="W2" s="15"/>
       <c r="X2" s="15"/>
@@ -12069,19 +12066,19 @@
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
       <c r="S3" s="22"/>
-      <c r="T3" s="208">
+      <c r="T3" s="220">
         <v>42717</v>
       </c>
-      <c r="U3" s="209"/>
+      <c r="U3" s="221"/>
       <c r="V3" s="14"/>
-      <c r="W3" s="218" t="s">
+      <c r="W3" s="192" t="s">
         <v>138</v>
       </c>
-      <c r="X3" s="219"/>
-      <c r="Y3" s="219"/>
-      <c r="Z3" s="219"/>
-      <c r="AA3" s="219"/>
-      <c r="AB3" s="220"/>
+      <c r="X3" s="193"/>
+      <c r="Y3" s="193"/>
+      <c r="Z3" s="193"/>
+      <c r="AA3" s="193"/>
+      <c r="AB3" s="194"/>
     </row>
     <row r="4" spans="1:28" s="4" customFormat="1" ht="96" customHeight="1">
       <c r="A4" s="29" t="s">
@@ -12167,27 +12164,27 @@
       <c r="A5" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="201" t="s">
+      <c r="B5" s="213" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="201"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="201"/>
-      <c r="H5" s="201"/>
-      <c r="I5" s="201"/>
-      <c r="J5" s="201"/>
-      <c r="K5" s="201"/>
-      <c r="L5" s="201"/>
-      <c r="M5" s="201"/>
-      <c r="N5" s="201"/>
-      <c r="O5" s="201"/>
-      <c r="P5" s="201"/>
-      <c r="Q5" s="201"/>
-      <c r="R5" s="201"/>
-      <c r="S5" s="201"/>
-      <c r="T5" s="201"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="213"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="213"/>
+      <c r="H5" s="213"/>
+      <c r="I5" s="213"/>
+      <c r="J5" s="213"/>
+      <c r="K5" s="213"/>
+      <c r="L5" s="213"/>
+      <c r="M5" s="213"/>
+      <c r="N5" s="213"/>
+      <c r="O5" s="213"/>
+      <c r="P5" s="213"/>
+      <c r="Q5" s="213"/>
+      <c r="R5" s="213"/>
+      <c r="S5" s="213"/>
+      <c r="T5" s="213"/>
       <c r="U5" s="55"/>
       <c r="V5" s="56"/>
       <c r="W5" s="57"/>
@@ -12291,7 +12288,7 @@
       </c>
     </row>
     <row r="7" spans="1:28" s="162" customFormat="1" ht="27" customHeight="1">
-      <c r="A7" s="213" t="s">
+      <c r="A7" s="210" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="142" t="s">
@@ -12315,19 +12312,19 @@
       <c r="H7" s="148">
         <v>18.309999999999999</v>
       </c>
-      <c r="I7" s="192">
+      <c r="I7" s="212">
         <v>25.5</v>
       </c>
       <c r="J7" s="181">
         <v>238</v>
       </c>
-      <c r="K7" s="193">
+      <c r="K7" s="223">
         <v>5.5</v>
       </c>
-      <c r="L7" s="200">
+      <c r="L7" s="208">
         <v>1</v>
       </c>
-      <c r="M7" s="211">
+      <c r="M7" s="203">
         <f>H7/8*I7*K7</f>
         <v>320.9971875</v>
       </c>
@@ -12349,7 +12346,7 @@
         <f>N7/M7</f>
         <v>6.2305841854143972E-2</v>
       </c>
-      <c r="S7" s="194">
+      <c r="S7" s="205">
         <f>(N7+N8)/M7</f>
         <v>0.80374535991845719</v>
       </c>
@@ -12385,7 +12382,7 @@
       </c>
     </row>
     <row r="8" spans="1:28" s="162" customFormat="1" ht="27" customHeight="1">
-      <c r="A8" s="214"/>
+      <c r="A8" s="222"/>
       <c r="B8" s="142" t="s">
         <v>27</v>
       </c>
@@ -12407,11 +12404,11 @@
       <c r="H8" s="148">
         <v>18.309999999999999</v>
       </c>
-      <c r="I8" s="192"/>
+      <c r="I8" s="212"/>
       <c r="J8" s="181"/>
-      <c r="K8" s="193"/>
-      <c r="L8" s="200"/>
-      <c r="M8" s="212"/>
+      <c r="K8" s="223"/>
+      <c r="L8" s="208"/>
+      <c r="M8" s="204"/>
       <c r="N8" s="149">
         <v>238</v>
       </c>
@@ -12430,7 +12427,7 @@
         <f>N8/M7</f>
         <v>0.7414395180643133</v>
       </c>
-      <c r="S8" s="195"/>
+      <c r="S8" s="224"/>
       <c r="T8" s="153">
         <v>0.10866574965612105</v>
       </c>
@@ -12446,7 +12443,7 @@
       </c>
     </row>
     <row r="9" spans="1:28" s="162" customFormat="1" ht="27" customHeight="1">
-      <c r="A9" s="215"/>
+      <c r="A9" s="211"/>
       <c r="B9" s="142" t="s">
         <v>23</v>
       </c>
@@ -12468,12 +12465,12 @@
       <c r="H9" s="148">
         <v>27.09</v>
       </c>
-      <c r="I9" s="192"/>
+      <c r="I9" s="212"/>
       <c r="J9" s="181"/>
       <c r="K9" s="183">
         <v>4</v>
       </c>
-      <c r="L9" s="200"/>
+      <c r="L9" s="208"/>
       <c r="M9" s="186">
         <f>H9/8*I7*K9</f>
         <v>345.39749999999998</v>
@@ -12624,7 +12621,7 @@
       </c>
     </row>
     <row r="11" spans="1:28" s="162" customFormat="1" ht="27" customHeight="1">
-      <c r="A11" s="213" t="s">
+      <c r="A11" s="210" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="142" t="s">
@@ -12648,7 +12645,7 @@
       <c r="H11" s="148">
         <v>26.37</v>
       </c>
-      <c r="I11" s="192">
+      <c r="I11" s="212">
         <v>23</v>
       </c>
       <c r="J11" s="181">
@@ -12657,7 +12654,7 @@
       <c r="K11" s="183">
         <v>3</v>
       </c>
-      <c r="L11" s="200">
+      <c r="L11" s="208">
         <v>1</v>
       </c>
       <c r="M11" s="186">
@@ -12682,7 +12679,7 @@
         <f t="shared" si="3"/>
         <v>2.7831363044302648</v>
       </c>
-      <c r="S11" s="210">
+      <c r="S11" s="209">
         <f>R11*K11/9.5+R12*K12/9.5</f>
         <v>1.0873548547331029</v>
       </c>
@@ -12716,7 +12713,7 @@
       </c>
     </row>
     <row r="12" spans="1:28" s="162" customFormat="1" ht="27" customHeight="1">
-      <c r="A12" s="215"/>
+      <c r="A12" s="211"/>
       <c r="B12" s="142" t="s">
         <v>43</v>
       </c>
@@ -12738,12 +12735,12 @@
       <c r="H12" s="148">
         <v>29.33</v>
       </c>
-      <c r="I12" s="192"/>
+      <c r="I12" s="212"/>
       <c r="J12" s="181"/>
       <c r="K12" s="183">
         <v>6.5</v>
       </c>
-      <c r="L12" s="200"/>
+      <c r="L12" s="208"/>
       <c r="M12" s="186">
         <f>H12/8*I11*K12</f>
         <v>548.10437499999989</v>
@@ -12766,7 +12763,7 @@
         <f t="shared" si="3"/>
         <v>0.30468649333441289</v>
       </c>
-      <c r="S12" s="210"/>
+      <c r="S12" s="209"/>
       <c r="T12" s="153">
         <v>7.8979343863912518E-2</v>
       </c>
@@ -13920,7 +13917,7 @@
       </c>
     </row>
     <row r="25" spans="1:28" s="162" customFormat="1" ht="27" customHeight="1">
-      <c r="A25" s="216" t="s">
+      <c r="A25" s="195" t="s">
         <v>67</v>
       </c>
       <c r="B25" s="142" t="s">
@@ -13944,7 +13941,7 @@
       <c r="H25" s="148">
         <v>25.55</v>
       </c>
-      <c r="I25" s="196">
+      <c r="I25" s="197">
         <v>28.526315789473685</v>
       </c>
       <c r="J25" s="181">
@@ -13953,7 +13950,7 @@
       <c r="K25" s="187">
         <v>1.5</v>
       </c>
-      <c r="L25" s="198">
+      <c r="L25" s="201">
         <v>1</v>
       </c>
       <c r="M25" s="186">
@@ -13974,7 +13971,7 @@
         <f t="shared" si="1"/>
         <v>-7697</v>
       </c>
-      <c r="S25" s="210" t="e">
+      <c r="S25" s="209" t="e">
         <f>#REF!*K25/9.5+#REF!*K26/9.5</f>
         <v>#REF!</v>
       </c>
@@ -14010,7 +14007,7 @@
       </c>
     </row>
     <row r="26" spans="1:28" s="162" customFormat="1" ht="27" customHeight="1">
-      <c r="A26" s="217"/>
+      <c r="A26" s="196"/>
       <c r="B26" s="142" t="s">
         <v>27</v>
       </c>
@@ -14032,12 +14029,12 @@
       <c r="H26" s="148">
         <v>25.46</v>
       </c>
-      <c r="I26" s="197"/>
+      <c r="I26" s="198"/>
       <c r="J26" s="181"/>
       <c r="K26" s="187">
         <v>8</v>
       </c>
-      <c r="L26" s="199"/>
+      <c r="L26" s="202"/>
       <c r="M26" s="186">
         <f>H26/8*I25*K26</f>
         <v>726.28000000000009</v>
@@ -14056,7 +14053,7 @@
         <f t="shared" si="1"/>
         <v>-2910</v>
       </c>
-      <c r="S26" s="210"/>
+      <c r="S26" s="209"/>
       <c r="T26" s="153">
         <v>0.20669999999999999</v>
       </c>
@@ -14370,7 +14367,7 @@
       </c>
     </row>
     <row r="30" spans="1:28" s="162" customFormat="1" ht="27" customHeight="1">
-      <c r="A30" s="216" t="s">
+      <c r="A30" s="195" t="s">
         <v>76</v>
       </c>
       <c r="B30" s="142" t="s">
@@ -14394,7 +14391,7 @@
       <c r="H30" s="148">
         <v>34.159999999999997</v>
       </c>
-      <c r="I30" s="196">
+      <c r="I30" s="197">
         <v>24.842105263157894</v>
       </c>
       <c r="J30" s="181">
@@ -14403,7 +14400,7 @@
       <c r="K30" s="187">
         <v>7</v>
       </c>
-      <c r="L30" s="198">
+      <c r="L30" s="201">
         <v>1</v>
       </c>
       <c r="M30" s="186">
@@ -14428,7 +14425,7 @@
         <f t="shared" si="10"/>
         <v>1.0773967825529769</v>
       </c>
-      <c r="S30" s="210">
+      <c r="S30" s="209">
         <f>R30*K30/9.5+R31*K31/9.5</f>
         <v>1.0143310244479051</v>
       </c>
@@ -14463,7 +14460,7 @@
       </c>
     </row>
     <row r="31" spans="1:28" s="162" customFormat="1" ht="27" customHeight="1">
-      <c r="A31" s="217"/>
+      <c r="A31" s="196"/>
       <c r="B31" s="142" t="s">
         <v>23</v>
       </c>
@@ -14485,12 +14482,12 @@
       <c r="H31" s="148">
         <v>32.29</v>
       </c>
-      <c r="I31" s="197"/>
+      <c r="I31" s="198"/>
       <c r="J31" s="181"/>
       <c r="K31" s="187">
         <v>2.5</v>
       </c>
-      <c r="L31" s="199"/>
+      <c r="L31" s="202"/>
       <c r="M31" s="186">
         <f>H31/8*I30*K31</f>
         <v>250.67236842105262</v>
@@ -14513,7 +14510,7 @@
         <f t="shared" si="10"/>
         <v>0.83774690175370459</v>
       </c>
-      <c r="S31" s="210"/>
+      <c r="S31" s="209"/>
       <c r="T31" s="153"/>
       <c r="U31" s="154"/>
       <c r="V31" s="155"/>
@@ -14635,7 +14632,7 @@
       </c>
     </row>
     <row r="33" spans="1:28" s="162" customFormat="1" ht="27" customHeight="1">
-      <c r="A33" s="224" t="s">
+      <c r="A33" s="207" t="s">
         <v>80</v>
       </c>
       <c r="B33" s="142" t="s">
@@ -14659,7 +14656,7 @@
       <c r="H33" s="148">
         <v>20.51</v>
       </c>
-      <c r="I33" s="196">
+      <c r="I33" s="197">
         <v>26.5</v>
       </c>
       <c r="J33" s="181">
@@ -14668,7 +14665,7 @@
       <c r="K33" s="187">
         <v>3.5</v>
       </c>
-      <c r="L33" s="200">
+      <c r="L33" s="208">
         <v>1</v>
       </c>
       <c r="M33" s="186">
@@ -14693,7 +14690,7 @@
         <f t="shared" si="10"/>
         <v>0.71492309976988411</v>
       </c>
-      <c r="S33" s="210">
+      <c r="S33" s="209">
         <f>R33*K33/9.5+R34*K34/9.5</f>
         <v>1.0059899547931561</v>
       </c>
@@ -14729,7 +14726,7 @@
       </c>
     </row>
     <row r="34" spans="1:28" s="162" customFormat="1" ht="27" customHeight="1">
-      <c r="A34" s="224"/>
+      <c r="A34" s="207"/>
       <c r="B34" s="142" t="s">
         <v>23</v>
       </c>
@@ -14751,12 +14748,12 @@
       <c r="H34" s="148">
         <v>22.68</v>
       </c>
-      <c r="I34" s="197"/>
+      <c r="I34" s="198"/>
       <c r="J34" s="181"/>
       <c r="K34" s="187">
         <v>6</v>
       </c>
-      <c r="L34" s="200"/>
+      <c r="L34" s="208"/>
       <c r="M34" s="186">
         <f>H34/8*I33*K34</f>
         <v>450.76499999999999</v>
@@ -14779,7 +14776,7 @@
         <f t="shared" si="10"/>
         <v>1.1757789535567313</v>
       </c>
-      <c r="S34" s="210"/>
+      <c r="S34" s="209"/>
       <c r="T34" s="153">
         <v>9.7493036211699163E-2</v>
       </c>
@@ -15286,7 +15283,7 @@
       </c>
     </row>
     <row r="40" spans="1:28" s="162" customFormat="1" ht="27" hidden="1" customHeight="1">
-      <c r="A40" s="216" t="s">
+      <c r="A40" s="195" t="s">
         <v>96</v>
       </c>
       <c r="B40" s="142" t="s">
@@ -15310,19 +15307,19 @@
       <c r="H40" s="148">
         <v>27.14</v>
       </c>
-      <c r="I40" s="196">
+      <c r="I40" s="197">
         <v>26</v>
       </c>
       <c r="J40" s="181">
         <v>250</v>
       </c>
-      <c r="K40" s="221">
+      <c r="K40" s="199">
         <v>9.5</v>
       </c>
-      <c r="L40" s="198">
+      <c r="L40" s="201">
         <v>1</v>
       </c>
-      <c r="M40" s="211">
+      <c r="M40" s="203">
         <f t="shared" si="11"/>
         <v>837.94749999999999</v>
       </c>
@@ -15344,7 +15341,7 @@
         <f t="shared" si="10"/>
         <v>0.27925377186518247</v>
       </c>
-      <c r="S40" s="194">
+      <c r="S40" s="205">
         <f>R40+R41</f>
         <v>0.70410139060024646</v>
       </c>
@@ -15378,7 +15375,7 @@
       </c>
     </row>
     <row r="41" spans="1:28" s="162" customFormat="1" ht="27" hidden="1" customHeight="1">
-      <c r="A41" s="217"/>
+      <c r="A41" s="196"/>
       <c r="B41" s="142" t="s">
         <v>24</v>
       </c>
@@ -15400,11 +15397,11 @@
       <c r="H41" s="148">
         <v>27.14</v>
       </c>
-      <c r="I41" s="197"/>
+      <c r="I41" s="198"/>
       <c r="J41" s="181"/>
-      <c r="K41" s="222"/>
-      <c r="L41" s="199"/>
-      <c r="M41" s="212"/>
+      <c r="K41" s="200"/>
+      <c r="L41" s="202"/>
+      <c r="M41" s="204"/>
       <c r="N41" s="149">
         <v>356</v>
       </c>
@@ -15423,7 +15420,7 @@
         <f>N41/M40</f>
         <v>0.42484761873506394</v>
       </c>
-      <c r="S41" s="223"/>
+      <c r="S41" s="206"/>
       <c r="T41" s="153">
         <v>5.7333333333333333E-2</v>
       </c>
@@ -17385,29 +17382,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A2:U2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="W3:AB3"/>
-    <mergeCell ref="B5:T5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="S30:S31"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="I33:I34"/>
     <mergeCell ref="L33:L34"/>
@@ -17418,6 +17392,29 @@
     <mergeCell ref="L40:L41"/>
     <mergeCell ref="M40:M41"/>
     <mergeCell ref="S40:S41"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:U2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="W3:AB3"/>
+    <mergeCell ref="B5:T5"/>
   </mergeCells>
   <phoneticPr fontId="46" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -17467,29 +17464,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="26.25">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="214" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="203"/>
-      <c r="K1" s="203"/>
-      <c r="L1" s="203"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="203"/>
-      <c r="O1" s="203"/>
-      <c r="P1" s="203"/>
-      <c r="Q1" s="203"/>
-      <c r="R1" s="203"/>
-      <c r="S1" s="203"/>
-      <c r="T1" s="203"/>
-      <c r="U1" s="204"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="215"/>
+      <c r="L1" s="215"/>
+      <c r="M1" s="215"/>
+      <c r="N1" s="215"/>
+      <c r="O1" s="215"/>
+      <c r="P1" s="215"/>
+      <c r="Q1" s="215"/>
+      <c r="R1" s="215"/>
+      <c r="S1" s="215"/>
+      <c r="T1" s="215"/>
+      <c r="U1" s="216"/>
       <c r="V1" s="14"/>
       <c r="W1" s="15"/>
       <c r="X1" s="15"/>
@@ -17499,29 +17496,29 @@
       <c r="AB1" s="15"/>
     </row>
     <row r="2" spans="1:28" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
-      <c r="K2" s="206"/>
-      <c r="L2" s="206"/>
-      <c r="M2" s="206"/>
-      <c r="N2" s="206"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="206"/>
-      <c r="Q2" s="206"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="206"/>
-      <c r="T2" s="206"/>
-      <c r="U2" s="207"/>
+      <c r="B2" s="218"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="218"/>
+      <c r="L2" s="218"/>
+      <c r="M2" s="218"/>
+      <c r="N2" s="218"/>
+      <c r="O2" s="218"/>
+      <c r="P2" s="218"/>
+      <c r="Q2" s="218"/>
+      <c r="R2" s="218"/>
+      <c r="S2" s="218"/>
+      <c r="T2" s="218"/>
+      <c r="U2" s="219"/>
       <c r="V2" s="14"/>
       <c r="W2" s="15"/>
       <c r="X2" s="15"/>
@@ -17550,19 +17547,19 @@
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
       <c r="S3" s="22"/>
-      <c r="T3" s="208">
+      <c r="T3" s="220">
         <v>42717</v>
       </c>
-      <c r="U3" s="209"/>
+      <c r="U3" s="221"/>
       <c r="V3" s="14"/>
-      <c r="W3" s="218" t="s">
+      <c r="W3" s="192" t="s">
         <v>138</v>
       </c>
-      <c r="X3" s="219"/>
-      <c r="Y3" s="219"/>
-      <c r="Z3" s="219"/>
-      <c r="AA3" s="219"/>
-      <c r="AB3" s="220"/>
+      <c r="X3" s="193"/>
+      <c r="Y3" s="193"/>
+      <c r="Z3" s="193"/>
+      <c r="AA3" s="193"/>
+      <c r="AB3" s="194"/>
     </row>
     <row r="4" spans="1:28" s="4" customFormat="1" ht="96" customHeight="1">
       <c r="A4" s="29" t="s">
@@ -17648,27 +17645,27 @@
       <c r="A5" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="201" t="s">
+      <c r="B5" s="213" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="201"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="201"/>
-      <c r="H5" s="201"/>
-      <c r="I5" s="201"/>
-      <c r="J5" s="201"/>
-      <c r="K5" s="201"/>
-      <c r="L5" s="201"/>
-      <c r="M5" s="201"/>
-      <c r="N5" s="201"/>
-      <c r="O5" s="201"/>
-      <c r="P5" s="201"/>
-      <c r="Q5" s="201"/>
-      <c r="R5" s="201"/>
-      <c r="S5" s="201"/>
-      <c r="T5" s="201"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="213"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="213"/>
+      <c r="H5" s="213"/>
+      <c r="I5" s="213"/>
+      <c r="J5" s="213"/>
+      <c r="K5" s="213"/>
+      <c r="L5" s="213"/>
+      <c r="M5" s="213"/>
+      <c r="N5" s="213"/>
+      <c r="O5" s="213"/>
+      <c r="P5" s="213"/>
+      <c r="Q5" s="213"/>
+      <c r="R5" s="213"/>
+      <c r="S5" s="213"/>
+      <c r="T5" s="213"/>
       <c r="U5" s="55"/>
       <c r="V5" s="56"/>
       <c r="W5" s="57"/>
@@ -17772,7 +17769,7 @@
       </c>
     </row>
     <row r="7" spans="1:28" s="162" customFormat="1" ht="27" hidden="1" customHeight="1">
-      <c r="A7" s="213" t="s">
+      <c r="A7" s="210" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="142" t="s">
@@ -17796,19 +17793,19 @@
       <c r="H7" s="148">
         <v>18.309999999999999</v>
       </c>
-      <c r="I7" s="192">
+      <c r="I7" s="212">
         <v>25.5</v>
       </c>
       <c r="J7" s="181">
         <v>238</v>
       </c>
-      <c r="K7" s="193">
+      <c r="K7" s="223">
         <v>5.5</v>
       </c>
-      <c r="L7" s="200">
+      <c r="L7" s="208">
         <v>1</v>
       </c>
-      <c r="M7" s="211">
+      <c r="M7" s="203">
         <f>H7/8*I7*K7</f>
         <v>320.9971875</v>
       </c>
@@ -17830,7 +17827,7 @@
         <f>N7/M7</f>
         <v>6.2305841854143972E-2</v>
       </c>
-      <c r="S7" s="194">
+      <c r="S7" s="205">
         <f>(N7+N8)/M7</f>
         <v>0.80374535991845719</v>
       </c>
@@ -17866,7 +17863,7 @@
       </c>
     </row>
     <row r="8" spans="1:28" s="162" customFormat="1" ht="27" hidden="1" customHeight="1">
-      <c r="A8" s="214"/>
+      <c r="A8" s="222"/>
       <c r="B8" s="142" t="s">
         <v>27</v>
       </c>
@@ -17888,11 +17885,11 @@
       <c r="H8" s="148">
         <v>18.309999999999999</v>
       </c>
-      <c r="I8" s="192"/>
+      <c r="I8" s="212"/>
       <c r="J8" s="181"/>
-      <c r="K8" s="193"/>
-      <c r="L8" s="200"/>
-      <c r="M8" s="212"/>
+      <c r="K8" s="223"/>
+      <c r="L8" s="208"/>
+      <c r="M8" s="204"/>
       <c r="N8" s="149">
         <v>238</v>
       </c>
@@ -17911,7 +17908,7 @@
         <f>N8/M7</f>
         <v>0.7414395180643133</v>
       </c>
-      <c r="S8" s="195"/>
+      <c r="S8" s="224"/>
       <c r="T8" s="153">
         <v>0.10866574965612105</v>
       </c>
@@ -17927,7 +17924,7 @@
       </c>
     </row>
     <row r="9" spans="1:28" s="162" customFormat="1" ht="27" hidden="1" customHeight="1">
-      <c r="A9" s="215"/>
+      <c r="A9" s="211"/>
       <c r="B9" s="142" t="s">
         <v>23</v>
       </c>
@@ -17949,12 +17946,12 @@
       <c r="H9" s="148">
         <v>27.09</v>
       </c>
-      <c r="I9" s="192"/>
+      <c r="I9" s="212"/>
       <c r="J9" s="181"/>
       <c r="K9" s="183">
         <v>4</v>
       </c>
-      <c r="L9" s="200"/>
+      <c r="L9" s="208"/>
       <c r="M9" s="186">
         <f>H9/8*I7*K9</f>
         <v>345.39749999999998</v>
@@ -18105,7 +18102,7 @@
       </c>
     </row>
     <row r="11" spans="1:28" s="162" customFormat="1" ht="27" hidden="1" customHeight="1">
-      <c r="A11" s="213" t="s">
+      <c r="A11" s="210" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="142" t="s">
@@ -18129,7 +18126,7 @@
       <c r="H11" s="148">
         <v>26.37</v>
       </c>
-      <c r="I11" s="192">
+      <c r="I11" s="212">
         <v>23</v>
       </c>
       <c r="J11" s="181">
@@ -18138,7 +18135,7 @@
       <c r="K11" s="183">
         <v>3</v>
       </c>
-      <c r="L11" s="200">
+      <c r="L11" s="208">
         <v>1</v>
       </c>
       <c r="M11" s="186">
@@ -18163,7 +18160,7 @@
         <f t="shared" si="3"/>
         <v>2.7831363044302648</v>
       </c>
-      <c r="S11" s="210">
+      <c r="S11" s="209">
         <f>R11*K11/9.5+R12*K12/9.5</f>
         <v>1.0873548547331029</v>
       </c>
@@ -18197,7 +18194,7 @@
       </c>
     </row>
     <row r="12" spans="1:28" s="162" customFormat="1" ht="27" hidden="1" customHeight="1">
-      <c r="A12" s="215"/>
+      <c r="A12" s="211"/>
       <c r="B12" s="142" t="s">
         <v>43</v>
       </c>
@@ -18219,12 +18216,12 @@
       <c r="H12" s="148">
         <v>29.33</v>
       </c>
-      <c r="I12" s="192"/>
+      <c r="I12" s="212"/>
       <c r="J12" s="181"/>
       <c r="K12" s="183">
         <v>6.5</v>
       </c>
-      <c r="L12" s="200"/>
+      <c r="L12" s="208"/>
       <c r="M12" s="186">
         <f>H12/8*I11*K12</f>
         <v>548.10437499999989</v>
@@ -18247,7 +18244,7 @@
         <f t="shared" si="3"/>
         <v>0.30468649333441289</v>
       </c>
-      <c r="S12" s="210"/>
+      <c r="S12" s="209"/>
       <c r="T12" s="153">
         <v>7.8979343863912518E-2</v>
       </c>
@@ -19401,7 +19398,7 @@
       </c>
     </row>
     <row r="25" spans="1:28" s="162" customFormat="1" ht="27" hidden="1" customHeight="1">
-      <c r="A25" s="216" t="s">
+      <c r="A25" s="195" t="s">
         <v>67</v>
       </c>
       <c r="B25" s="142" t="s">
@@ -19425,7 +19422,7 @@
       <c r="H25" s="148">
         <v>25.55</v>
       </c>
-      <c r="I25" s="196">
+      <c r="I25" s="197">
         <v>28.526315789473685</v>
       </c>
       <c r="J25" s="181">
@@ -19434,7 +19431,7 @@
       <c r="K25" s="187">
         <v>1.5</v>
       </c>
-      <c r="L25" s="198">
+      <c r="L25" s="201">
         <v>1</v>
       </c>
       <c r="M25" s="186">
@@ -19455,7 +19452,7 @@
         <f t="shared" si="1"/>
         <v>-7697</v>
       </c>
-      <c r="S25" s="210" t="e">
+      <c r="S25" s="209" t="e">
         <f>#REF!*K25/9.5+#REF!*K26/9.5</f>
         <v>#REF!</v>
       </c>
@@ -19491,7 +19488,7 @@
       </c>
     </row>
     <row r="26" spans="1:28" s="162" customFormat="1" ht="27" hidden="1" customHeight="1">
-      <c r="A26" s="217"/>
+      <c r="A26" s="196"/>
       <c r="B26" s="142" t="s">
         <v>27</v>
       </c>
@@ -19513,12 +19510,12 @@
       <c r="H26" s="148">
         <v>25.46</v>
       </c>
-      <c r="I26" s="197"/>
+      <c r="I26" s="198"/>
       <c r="J26" s="181"/>
       <c r="K26" s="187">
         <v>8</v>
       </c>
-      <c r="L26" s="199"/>
+      <c r="L26" s="202"/>
       <c r="M26" s="186">
         <f>H26/8*I25*K26</f>
         <v>726.28000000000009</v>
@@ -19537,7 +19534,7 @@
         <f t="shared" si="1"/>
         <v>-2910</v>
       </c>
-      <c r="S26" s="210"/>
+      <c r="S26" s="209"/>
       <c r="T26" s="153">
         <v>0.20669999999999999</v>
       </c>
@@ -19851,7 +19848,7 @@
       </c>
     </row>
     <row r="30" spans="1:28" s="162" customFormat="1" ht="27" hidden="1" customHeight="1">
-      <c r="A30" s="216" t="s">
+      <c r="A30" s="195" t="s">
         <v>76</v>
       </c>
       <c r="B30" s="142" t="s">
@@ -19875,7 +19872,7 @@
       <c r="H30" s="148">
         <v>34.159999999999997</v>
       </c>
-      <c r="I30" s="196">
+      <c r="I30" s="197">
         <v>24.842105263157894</v>
       </c>
       <c r="J30" s="181">
@@ -19884,7 +19881,7 @@
       <c r="K30" s="187">
         <v>7</v>
       </c>
-      <c r="L30" s="198">
+      <c r="L30" s="201">
         <v>1</v>
       </c>
       <c r="M30" s="186">
@@ -19909,7 +19906,7 @@
         <f t="shared" si="10"/>
         <v>1.0773967825529769</v>
       </c>
-      <c r="S30" s="210">
+      <c r="S30" s="209">
         <f>R30*K30/9.5+R31*K31/9.5</f>
         <v>1.0143310244479051</v>
       </c>
@@ -19944,7 +19941,7 @@
       </c>
     </row>
     <row r="31" spans="1:28" s="162" customFormat="1" ht="27" hidden="1" customHeight="1">
-      <c r="A31" s="217"/>
+      <c r="A31" s="196"/>
       <c r="B31" s="142" t="s">
         <v>23</v>
       </c>
@@ -19966,12 +19963,12 @@
       <c r="H31" s="148">
         <v>32.29</v>
       </c>
-      <c r="I31" s="197"/>
+      <c r="I31" s="198"/>
       <c r="J31" s="181"/>
       <c r="K31" s="187">
         <v>2.5</v>
       </c>
-      <c r="L31" s="199"/>
+      <c r="L31" s="202"/>
       <c r="M31" s="186">
         <f>H31/8*I30*K31</f>
         <v>250.67236842105262</v>
@@ -19994,7 +19991,7 @@
         <f t="shared" si="10"/>
         <v>0.83774690175370459</v>
       </c>
-      <c r="S31" s="210"/>
+      <c r="S31" s="209"/>
       <c r="T31" s="153"/>
       <c r="U31" s="154"/>
       <c r="V31" s="155"/>
@@ -20116,7 +20113,7 @@
       </c>
     </row>
     <row r="33" spans="1:28" s="162" customFormat="1" ht="27" hidden="1" customHeight="1">
-      <c r="A33" s="224" t="s">
+      <c r="A33" s="207" t="s">
         <v>80</v>
       </c>
       <c r="B33" s="142" t="s">
@@ -20140,7 +20137,7 @@
       <c r="H33" s="148">
         <v>20.51</v>
       </c>
-      <c r="I33" s="196">
+      <c r="I33" s="197">
         <v>26.5</v>
       </c>
       <c r="J33" s="181">
@@ -20149,7 +20146,7 @@
       <c r="K33" s="187">
         <v>3.5</v>
       </c>
-      <c r="L33" s="200">
+      <c r="L33" s="208">
         <v>1</v>
       </c>
       <c r="M33" s="186">
@@ -20174,7 +20171,7 @@
         <f t="shared" si="10"/>
         <v>0.71492309976988411</v>
       </c>
-      <c r="S33" s="210">
+      <c r="S33" s="209">
         <f>R33*K33/9.5+R34*K34/9.5</f>
         <v>1.0059899547931561</v>
       </c>
@@ -20210,7 +20207,7 @@
       </c>
     </row>
     <row r="34" spans="1:28" s="162" customFormat="1" ht="27" hidden="1" customHeight="1">
-      <c r="A34" s="224"/>
+      <c r="A34" s="207"/>
       <c r="B34" s="142" t="s">
         <v>23</v>
       </c>
@@ -20232,12 +20229,12 @@
       <c r="H34" s="148">
         <v>22.68</v>
       </c>
-      <c r="I34" s="197"/>
+      <c r="I34" s="198"/>
       <c r="J34" s="181"/>
       <c r="K34" s="187">
         <v>6</v>
       </c>
-      <c r="L34" s="200"/>
+      <c r="L34" s="208"/>
       <c r="M34" s="186">
         <f>H34/8*I33*K34</f>
         <v>450.76499999999999</v>
@@ -20260,7 +20257,7 @@
         <f t="shared" si="10"/>
         <v>1.1757789535567313</v>
       </c>
-      <c r="S34" s="210"/>
+      <c r="S34" s="209"/>
       <c r="T34" s="153">
         <v>9.7493036211699163E-2</v>
       </c>
@@ -20767,7 +20764,7 @@
       </c>
     </row>
     <row r="40" spans="1:28" s="162" customFormat="1" ht="27" customHeight="1">
-      <c r="A40" s="216" t="s">
+      <c r="A40" s="195" t="s">
         <v>96</v>
       </c>
       <c r="B40" s="142" t="s">
@@ -20791,19 +20788,19 @@
       <c r="H40" s="148">
         <v>27.14</v>
       </c>
-      <c r="I40" s="196">
+      <c r="I40" s="197">
         <v>26</v>
       </c>
       <c r="J40" s="181">
         <v>250</v>
       </c>
-      <c r="K40" s="221">
+      <c r="K40" s="199">
         <v>9.5</v>
       </c>
-      <c r="L40" s="198">
+      <c r="L40" s="201">
         <v>1</v>
       </c>
-      <c r="M40" s="211">
+      <c r="M40" s="203">
         <f t="shared" si="11"/>
         <v>837.94749999999999</v>
       </c>
@@ -20825,7 +20822,7 @@
         <f t="shared" si="10"/>
         <v>0.27925377186518247</v>
       </c>
-      <c r="S40" s="194">
+      <c r="S40" s="205">
         <f>R40+R41</f>
         <v>0.70410139060024646</v>
       </c>
@@ -20859,7 +20856,7 @@
       </c>
     </row>
     <row r="41" spans="1:28" s="162" customFormat="1" ht="27" customHeight="1">
-      <c r="A41" s="217"/>
+      <c r="A41" s="196"/>
       <c r="B41" s="142" t="s">
         <v>24</v>
       </c>
@@ -20881,11 +20878,11 @@
       <c r="H41" s="148">
         <v>27.14</v>
       </c>
-      <c r="I41" s="197"/>
+      <c r="I41" s="198"/>
       <c r="J41" s="181"/>
-      <c r="K41" s="222"/>
-      <c r="L41" s="199"/>
-      <c r="M41" s="212"/>
+      <c r="K41" s="200"/>
+      <c r="L41" s="202"/>
+      <c r="M41" s="204"/>
       <c r="N41" s="149">
         <v>356</v>
       </c>
@@ -20904,7 +20901,7 @@
         <f>N41/M40</f>
         <v>0.42484761873506394</v>
       </c>
-      <c r="S41" s="223"/>
+      <c r="S41" s="206"/>
       <c r="T41" s="153">
         <v>5.7333333333333333E-2</v>
       </c>
@@ -22866,29 +22863,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A2:U2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="W3:AB3"/>
-    <mergeCell ref="B5:T5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="S30:S31"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="I33:I34"/>
     <mergeCell ref="L33:L34"/>
@@ -22899,6 +22873,29 @@
     <mergeCell ref="L40:L41"/>
     <mergeCell ref="M40:M41"/>
     <mergeCell ref="S40:S41"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:U2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="W3:AB3"/>
+    <mergeCell ref="B5:T5"/>
   </mergeCells>
   <phoneticPr fontId="46" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -22948,29 +22945,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="26.25">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="214" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="203"/>
-      <c r="K1" s="203"/>
-      <c r="L1" s="203"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="203"/>
-      <c r="O1" s="203"/>
-      <c r="P1" s="203"/>
-      <c r="Q1" s="203"/>
-      <c r="R1" s="203"/>
-      <c r="S1" s="203"/>
-      <c r="T1" s="203"/>
-      <c r="U1" s="204"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="215"/>
+      <c r="L1" s="215"/>
+      <c r="M1" s="215"/>
+      <c r="N1" s="215"/>
+      <c r="O1" s="215"/>
+      <c r="P1" s="215"/>
+      <c r="Q1" s="215"/>
+      <c r="R1" s="215"/>
+      <c r="S1" s="215"/>
+      <c r="T1" s="215"/>
+      <c r="U1" s="216"/>
       <c r="V1" s="14"/>
       <c r="W1" s="15"/>
       <c r="X1" s="15"/>
@@ -22980,29 +22977,29 @@
       <c r="AB1" s="15"/>
     </row>
     <row r="2" spans="1:28" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
-      <c r="K2" s="206"/>
-      <c r="L2" s="206"/>
-      <c r="M2" s="206"/>
-      <c r="N2" s="206"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="206"/>
-      <c r="Q2" s="206"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="206"/>
-      <c r="T2" s="206"/>
-      <c r="U2" s="207"/>
+      <c r="B2" s="218"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="218"/>
+      <c r="L2" s="218"/>
+      <c r="M2" s="218"/>
+      <c r="N2" s="218"/>
+      <c r="O2" s="218"/>
+      <c r="P2" s="218"/>
+      <c r="Q2" s="218"/>
+      <c r="R2" s="218"/>
+      <c r="S2" s="218"/>
+      <c r="T2" s="218"/>
+      <c r="U2" s="219"/>
       <c r="V2" s="14"/>
       <c r="W2" s="15"/>
       <c r="X2" s="15"/>
@@ -23031,19 +23028,19 @@
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
       <c r="S3" s="22"/>
-      <c r="T3" s="208">
+      <c r="T3" s="220">
         <v>42717</v>
       </c>
-      <c r="U3" s="209"/>
+      <c r="U3" s="221"/>
       <c r="V3" s="14"/>
-      <c r="W3" s="218" t="s">
+      <c r="W3" s="192" t="s">
         <v>138</v>
       </c>
-      <c r="X3" s="219"/>
-      <c r="Y3" s="219"/>
-      <c r="Z3" s="219"/>
-      <c r="AA3" s="219"/>
-      <c r="AB3" s="220"/>
+      <c r="X3" s="193"/>
+      <c r="Y3" s="193"/>
+      <c r="Z3" s="193"/>
+      <c r="AA3" s="193"/>
+      <c r="AB3" s="194"/>
     </row>
     <row r="4" spans="1:28" s="4" customFormat="1" ht="96" customHeight="1">
       <c r="A4" s="29" t="s">
@@ -23129,27 +23126,27 @@
       <c r="A5" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="201" t="s">
+      <c r="B5" s="213" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="201"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="201"/>
-      <c r="H5" s="201"/>
-      <c r="I5" s="201"/>
-      <c r="J5" s="201"/>
-      <c r="K5" s="201"/>
-      <c r="L5" s="201"/>
-      <c r="M5" s="201"/>
-      <c r="N5" s="201"/>
-      <c r="O5" s="201"/>
-      <c r="P5" s="201"/>
-      <c r="Q5" s="201"/>
-      <c r="R5" s="201"/>
-      <c r="S5" s="201"/>
-      <c r="T5" s="201"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="213"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="213"/>
+      <c r="H5" s="213"/>
+      <c r="I5" s="213"/>
+      <c r="J5" s="213"/>
+      <c r="K5" s="213"/>
+      <c r="L5" s="213"/>
+      <c r="M5" s="213"/>
+      <c r="N5" s="213"/>
+      <c r="O5" s="213"/>
+      <c r="P5" s="213"/>
+      <c r="Q5" s="213"/>
+      <c r="R5" s="213"/>
+      <c r="S5" s="213"/>
+      <c r="T5" s="213"/>
       <c r="U5" s="55"/>
       <c r="V5" s="56"/>
       <c r="W5" s="57"/>
@@ -23253,7 +23250,7 @@
       </c>
     </row>
     <row r="7" spans="1:28" s="162" customFormat="1" ht="27" hidden="1" customHeight="1">
-      <c r="A7" s="213" t="s">
+      <c r="A7" s="210" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="142" t="s">
@@ -23277,19 +23274,19 @@
       <c r="H7" s="148">
         <v>18.309999999999999</v>
       </c>
-      <c r="I7" s="192">
+      <c r="I7" s="212">
         <v>25.5</v>
       </c>
       <c r="J7" s="181">
         <v>238</v>
       </c>
-      <c r="K7" s="193">
+      <c r="K7" s="223">
         <v>5.5</v>
       </c>
-      <c r="L7" s="200">
+      <c r="L7" s="208">
         <v>1</v>
       </c>
-      <c r="M7" s="211">
+      <c r="M7" s="203">
         <f>H7/8*I7*K7</f>
         <v>320.9971875</v>
       </c>
@@ -23311,7 +23308,7 @@
         <f>N7/M7</f>
         <v>6.2305841854143972E-2</v>
       </c>
-      <c r="S7" s="194">
+      <c r="S7" s="205">
         <f>(N7+N8)/M7</f>
         <v>0.80374535991845719</v>
       </c>
@@ -23347,7 +23344,7 @@
       </c>
     </row>
     <row r="8" spans="1:28" s="162" customFormat="1" ht="27" hidden="1" customHeight="1">
-      <c r="A8" s="214"/>
+      <c r="A8" s="222"/>
       <c r="B8" s="142" t="s">
         <v>27</v>
       </c>
@@ -23369,11 +23366,11 @@
       <c r="H8" s="148">
         <v>18.309999999999999</v>
       </c>
-      <c r="I8" s="192"/>
+      <c r="I8" s="212"/>
       <c r="J8" s="181"/>
-      <c r="K8" s="193"/>
-      <c r="L8" s="200"/>
-      <c r="M8" s="212"/>
+      <c r="K8" s="223"/>
+      <c r="L8" s="208"/>
+      <c r="M8" s="204"/>
       <c r="N8" s="149">
         <v>238</v>
       </c>
@@ -23392,7 +23389,7 @@
         <f>N8/M7</f>
         <v>0.7414395180643133</v>
       </c>
-      <c r="S8" s="195"/>
+      <c r="S8" s="224"/>
       <c r="T8" s="153">
         <v>0.10866574965612105</v>
       </c>
@@ -23408,7 +23405,7 @@
       </c>
     </row>
     <row r="9" spans="1:28" s="162" customFormat="1" ht="27" hidden="1" customHeight="1">
-      <c r="A9" s="215"/>
+      <c r="A9" s="211"/>
       <c r="B9" s="142" t="s">
         <v>23</v>
       </c>
@@ -23430,12 +23427,12 @@
       <c r="H9" s="148">
         <v>27.09</v>
       </c>
-      <c r="I9" s="192"/>
+      <c r="I9" s="212"/>
       <c r="J9" s="181"/>
       <c r="K9" s="183">
         <v>4</v>
       </c>
-      <c r="L9" s="200"/>
+      <c r="L9" s="208"/>
       <c r="M9" s="186">
         <f>H9/8*I7*K9</f>
         <v>345.39749999999998</v>
@@ -23586,7 +23583,7 @@
       </c>
     </row>
     <row r="11" spans="1:28" s="162" customFormat="1" ht="27" hidden="1" customHeight="1">
-      <c r="A11" s="213" t="s">
+      <c r="A11" s="210" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="142" t="s">
@@ -23610,7 +23607,7 @@
       <c r="H11" s="148">
         <v>26.37</v>
       </c>
-      <c r="I11" s="192">
+      <c r="I11" s="212">
         <v>23</v>
       </c>
       <c r="J11" s="181">
@@ -23619,7 +23616,7 @@
       <c r="K11" s="183">
         <v>3</v>
       </c>
-      <c r="L11" s="200">
+      <c r="L11" s="208">
         <v>1</v>
       </c>
       <c r="M11" s="186">
@@ -23644,7 +23641,7 @@
         <f t="shared" si="3"/>
         <v>2.7831363044302648</v>
       </c>
-      <c r="S11" s="210">
+      <c r="S11" s="209">
         <f>R11*K11/9.5+R12*K12/9.5</f>
         <v>1.0873548547331029</v>
       </c>
@@ -23678,7 +23675,7 @@
       </c>
     </row>
     <row r="12" spans="1:28" s="162" customFormat="1" ht="27" hidden="1" customHeight="1">
-      <c r="A12" s="215"/>
+      <c r="A12" s="211"/>
       <c r="B12" s="142" t="s">
         <v>43</v>
       </c>
@@ -23700,12 +23697,12 @@
       <c r="H12" s="148">
         <v>29.33</v>
       </c>
-      <c r="I12" s="192"/>
+      <c r="I12" s="212"/>
       <c r="J12" s="181"/>
       <c r="K12" s="183">
         <v>6.5</v>
       </c>
-      <c r="L12" s="200"/>
+      <c r="L12" s="208"/>
       <c r="M12" s="186">
         <f>H12/8*I11*K12</f>
         <v>548.10437499999989</v>
@@ -23728,7 +23725,7 @@
         <f t="shared" si="3"/>
         <v>0.30468649333441289</v>
       </c>
-      <c r="S12" s="210"/>
+      <c r="S12" s="209"/>
       <c r="T12" s="153">
         <v>7.8979343863912518E-2</v>
       </c>
@@ -24882,7 +24879,7 @@
       </c>
     </row>
     <row r="25" spans="1:28" s="162" customFormat="1" ht="27" hidden="1" customHeight="1">
-      <c r="A25" s="216" t="s">
+      <c r="A25" s="195" t="s">
         <v>67</v>
       </c>
       <c r="B25" s="142" t="s">
@@ -24906,7 +24903,7 @@
       <c r="H25" s="148">
         <v>25.55</v>
       </c>
-      <c r="I25" s="196">
+      <c r="I25" s="197">
         <v>28.526315789473685</v>
       </c>
       <c r="J25" s="181">
@@ -24915,7 +24912,7 @@
       <c r="K25" s="187">
         <v>1.5</v>
       </c>
-      <c r="L25" s="198">
+      <c r="L25" s="201">
         <v>1</v>
       </c>
       <c r="M25" s="186">
@@ -24936,7 +24933,7 @@
         <f t="shared" si="1"/>
         <v>-7697</v>
       </c>
-      <c r="S25" s="210" t="e">
+      <c r="S25" s="209" t="e">
         <f>#REF!*K25/9.5+#REF!*K26/9.5</f>
         <v>#REF!</v>
       </c>
@@ -24972,7 +24969,7 @@
       </c>
     </row>
     <row r="26" spans="1:28" s="162" customFormat="1" ht="27" hidden="1" customHeight="1">
-      <c r="A26" s="217"/>
+      <c r="A26" s="196"/>
       <c r="B26" s="142" t="s">
         <v>27</v>
       </c>
@@ -24994,12 +24991,12 @@
       <c r="H26" s="148">
         <v>25.46</v>
       </c>
-      <c r="I26" s="197"/>
+      <c r="I26" s="198"/>
       <c r="J26" s="181"/>
       <c r="K26" s="187">
         <v>8</v>
       </c>
-      <c r="L26" s="199"/>
+      <c r="L26" s="202"/>
       <c r="M26" s="186">
         <f>H26/8*I25*K26</f>
         <v>726.28000000000009</v>
@@ -25018,7 +25015,7 @@
         <f t="shared" si="1"/>
         <v>-2910</v>
       </c>
-      <c r="S26" s="210"/>
+      <c r="S26" s="209"/>
       <c r="T26" s="153">
         <v>0.20669999999999999</v>
       </c>
@@ -25332,7 +25329,7 @@
       </c>
     </row>
     <row r="30" spans="1:28" s="162" customFormat="1" ht="27" hidden="1" customHeight="1">
-      <c r="A30" s="216" t="s">
+      <c r="A30" s="195" t="s">
         <v>76</v>
       </c>
       <c r="B30" s="142" t="s">
@@ -25356,7 +25353,7 @@
       <c r="H30" s="148">
         <v>34.159999999999997</v>
       </c>
-      <c r="I30" s="196">
+      <c r="I30" s="197">
         <v>24.842105263157894</v>
       </c>
       <c r="J30" s="181">
@@ -25365,7 +25362,7 @@
       <c r="K30" s="187">
         <v>7</v>
       </c>
-      <c r="L30" s="198">
+      <c r="L30" s="201">
         <v>1</v>
       </c>
       <c r="M30" s="186">
@@ -25390,7 +25387,7 @@
         <f t="shared" si="10"/>
         <v>1.0773967825529769</v>
       </c>
-      <c r="S30" s="210">
+      <c r="S30" s="209">
         <f>R30*K30/9.5+R31*K31/9.5</f>
         <v>1.0143310244479051</v>
       </c>
@@ -25425,7 +25422,7 @@
       </c>
     </row>
     <row r="31" spans="1:28" s="162" customFormat="1" ht="27" hidden="1" customHeight="1">
-      <c r="A31" s="217"/>
+      <c r="A31" s="196"/>
       <c r="B31" s="142" t="s">
         <v>23</v>
       </c>
@@ -25447,12 +25444,12 @@
       <c r="H31" s="148">
         <v>32.29</v>
       </c>
-      <c r="I31" s="197"/>
+      <c r="I31" s="198"/>
       <c r="J31" s="181"/>
       <c r="K31" s="187">
         <v>2.5</v>
       </c>
-      <c r="L31" s="199"/>
+      <c r="L31" s="202"/>
       <c r="M31" s="186">
         <f>H31/8*I30*K31</f>
         <v>250.67236842105262</v>
@@ -25475,7 +25472,7 @@
         <f t="shared" si="10"/>
         <v>0.83774690175370459</v>
       </c>
-      <c r="S31" s="210"/>
+      <c r="S31" s="209"/>
       <c r="T31" s="153"/>
       <c r="U31" s="154"/>
       <c r="V31" s="155"/>
@@ -25597,7 +25594,7 @@
       </c>
     </row>
     <row r="33" spans="1:28" s="162" customFormat="1" ht="27" hidden="1" customHeight="1">
-      <c r="A33" s="224" t="s">
+      <c r="A33" s="207" t="s">
         <v>80</v>
       </c>
       <c r="B33" s="142" t="s">
@@ -25621,7 +25618,7 @@
       <c r="H33" s="148">
         <v>20.51</v>
       </c>
-      <c r="I33" s="196">
+      <c r="I33" s="197">
         <v>26.5</v>
       </c>
       <c r="J33" s="181">
@@ -25630,7 +25627,7 @@
       <c r="K33" s="187">
         <v>3.5</v>
       </c>
-      <c r="L33" s="200">
+      <c r="L33" s="208">
         <v>1</v>
       </c>
       <c r="M33" s="186">
@@ -25655,7 +25652,7 @@
         <f t="shared" si="10"/>
         <v>0.71492309976988411</v>
       </c>
-      <c r="S33" s="210">
+      <c r="S33" s="209">
         <f>R33*K33/9.5+R34*K34/9.5</f>
         <v>1.0059899547931561</v>
       </c>
@@ -25691,7 +25688,7 @@
       </c>
     </row>
     <row r="34" spans="1:28" s="162" customFormat="1" ht="27" hidden="1" customHeight="1">
-      <c r="A34" s="224"/>
+      <c r="A34" s="207"/>
       <c r="B34" s="142" t="s">
         <v>23</v>
       </c>
@@ -25713,12 +25710,12 @@
       <c r="H34" s="148">
         <v>22.68</v>
       </c>
-      <c r="I34" s="197"/>
+      <c r="I34" s="198"/>
       <c r="J34" s="181"/>
       <c r="K34" s="187">
         <v>6</v>
       </c>
-      <c r="L34" s="200"/>
+      <c r="L34" s="208"/>
       <c r="M34" s="186">
         <f>H34/8*I33*K34</f>
         <v>450.76499999999999</v>
@@ -25741,7 +25738,7 @@
         <f t="shared" si="10"/>
         <v>1.1757789535567313</v>
       </c>
-      <c r="S34" s="210"/>
+      <c r="S34" s="209"/>
       <c r="T34" s="153">
         <v>9.7493036211699163E-2</v>
       </c>
@@ -26248,7 +26245,7 @@
       </c>
     </row>
     <row r="40" spans="1:28" s="162" customFormat="1" ht="27" hidden="1" customHeight="1">
-      <c r="A40" s="216" t="s">
+      <c r="A40" s="195" t="s">
         <v>96</v>
       </c>
       <c r="B40" s="142" t="s">
@@ -26272,19 +26269,19 @@
       <c r="H40" s="148">
         <v>27.14</v>
       </c>
-      <c r="I40" s="196">
+      <c r="I40" s="197">
         <v>26</v>
       </c>
       <c r="J40" s="181">
         <v>250</v>
       </c>
-      <c r="K40" s="221">
+      <c r="K40" s="199">
         <v>9.5</v>
       </c>
-      <c r="L40" s="198">
+      <c r="L40" s="201">
         <v>1</v>
       </c>
-      <c r="M40" s="211">
+      <c r="M40" s="203">
         <f t="shared" si="11"/>
         <v>837.94749999999999</v>
       </c>
@@ -26306,7 +26303,7 @@
         <f t="shared" si="10"/>
         <v>0.27925377186518247</v>
       </c>
-      <c r="S40" s="194">
+      <c r="S40" s="205">
         <f>R40+R41</f>
         <v>0.70410139060024646</v>
       </c>
@@ -26340,7 +26337,7 @@
       </c>
     </row>
     <row r="41" spans="1:28" s="162" customFormat="1" ht="27" hidden="1" customHeight="1">
-      <c r="A41" s="217"/>
+      <c r="A41" s="196"/>
       <c r="B41" s="142" t="s">
         <v>24</v>
       </c>
@@ -26362,11 +26359,11 @@
       <c r="H41" s="148">
         <v>27.14</v>
       </c>
-      <c r="I41" s="197"/>
+      <c r="I41" s="198"/>
       <c r="J41" s="181"/>
-      <c r="K41" s="222"/>
-      <c r="L41" s="199"/>
-      <c r="M41" s="212"/>
+      <c r="K41" s="200"/>
+      <c r="L41" s="202"/>
+      <c r="M41" s="204"/>
       <c r="N41" s="149">
         <v>356</v>
       </c>
@@ -26385,7 +26382,7 @@
         <f>N41/M40</f>
         <v>0.42484761873506394</v>
       </c>
-      <c r="S41" s="223"/>
+      <c r="S41" s="206"/>
       <c r="T41" s="153">
         <v>5.7333333333333333E-2</v>
       </c>
@@ -28347,29 +28344,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A2:U2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="W3:AB3"/>
-    <mergeCell ref="B5:T5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="S30:S31"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="I33:I34"/>
     <mergeCell ref="L33:L34"/>
@@ -28380,6 +28354,29 @@
     <mergeCell ref="L40:L41"/>
     <mergeCell ref="M40:M41"/>
     <mergeCell ref="S40:S41"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:U2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="W3:AB3"/>
+    <mergeCell ref="B5:T5"/>
   </mergeCells>
   <phoneticPr fontId="46" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
